--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{5861B80B-D74E-44B1-B939-551785138B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23304" windowHeight="13224" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="15336" windowHeight="4956" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="deals" sheetId="2" r:id="rId2"/>
     <sheet name="tasks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <oleSize ref="A1:L11"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <oleSize ref="A1:K14"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -79,8 +78,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -221,7 +220,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -398,23 +397,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -456,7 +455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -476,26 +475,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
